--- a/spec/ASW/Veh/Driver/APP/APP_VD/APP_VD.xlsx
+++ b/spec/ASW/Veh/Driver/APP/APP_VD/APP_VD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\APP\APP_VD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E5466-FD31-4C67-989F-5AAB09E6D711}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,218 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP_uRaw_mp</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>Acceleration pedal position raw value</t>
+  </si>
+  <si>
+    <t>APP_stSigSrc_APPLIMP_BP</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Substitute operation active, accelerator pedal sensor value and accelerator pedal sensor increase are limited</t>
+  </si>
+  <si>
+    <t>APP_stSigSrc_APPDEF_BP</t>
+  </si>
+  <si>
+    <t>both the sensors are defective. Use the default value</t>
+  </si>
+  <si>
+    <t>APP_uUnJit_mp</t>
+  </si>
+  <si>
+    <t>Acceleration pedal position unjittered value</t>
+  </si>
+  <si>
+    <t>APP_rLinAPP_mp</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Linearisation ratio of accelerator pedal</t>
+  </si>
+  <si>
+    <t>APP_drUnFlt</t>
+  </si>
+  <si>
+    <t>%/s</t>
+  </si>
+  <si>
+    <t>Acceleration pedal position gradient of unfilterd value</t>
+  </si>
+  <si>
+    <t>APP_rUnFlt</t>
+  </si>
+  <si>
+    <t>Unfiltered APP value</t>
+  </si>
+  <si>
+    <t>APP_rFlt_mp</t>
+  </si>
+  <si>
+    <t>Acceleration pedal position filtered value</t>
+  </si>
+  <si>
+    <t>APP_rUnFlt_mp</t>
+  </si>
+  <si>
+    <t>APP_facPT1</t>
+  </si>
+  <si>
+    <t>Filter time</t>
+  </si>
+  <si>
+    <t>APP_uJitter_C</t>
+  </si>
+  <si>
+    <t>Threshold for unjittering</t>
+  </si>
+  <si>
+    <t>APP_swtEnaUnJit_C</t>
+  </si>
+  <si>
+    <t>Switch to enable unjittering</t>
+  </si>
+  <si>
+    <t>MoFAPP_rLinAPPCURCalMsgA_CURX</t>
+  </si>
+  <si>
+    <t>[1000 3390]</t>
+  </si>
+  <si>
+    <t>accpedal axis</t>
+  </si>
+  <si>
+    <t>MoFAPP_rLinAPPCURCalMsgA_CUR</t>
+  </si>
+  <si>
+    <t>[0 100]</t>
+  </si>
+  <si>
+    <t>the physical value of accpedal</t>
+  </si>
+  <si>
+    <t>APP_drLinRmp_C</t>
+  </si>
+  <si>
+    <t>Permissible amount of accpedal value when vehicle quits limp mode</t>
+  </si>
+  <si>
+    <t>APP_rThrFltLowNeg_C</t>
+  </si>
+  <si>
+    <t>Threshold for low/mid-range Filter parameter falling signal</t>
+  </si>
+  <si>
+    <t>APP_rThrFltMidNeg_C</t>
+  </si>
+  <si>
+    <t>Threshold for mid/high-range Filter parameter falling signal</t>
+  </si>
+  <si>
+    <t>APP_rThrFltLowPos_C</t>
+  </si>
+  <si>
+    <t>Threshold for low/mid-range Filter parameter rising signal</t>
+  </si>
+  <si>
+    <t>APP_rThrFltMidPos_C</t>
+  </si>
+  <si>
+    <t>Threshold for mid/high-range Filter parameter rising signal</t>
+  </si>
+  <si>
+    <t>APP_facUppNegPT1_C</t>
+  </si>
+  <si>
+    <t>Filter parameter falling signal high range</t>
+  </si>
+  <si>
+    <t>APP_facMidNegPT1_C</t>
+  </si>
+  <si>
+    <t>Filter parameter falling signal mid range</t>
+  </si>
+  <si>
+    <t>APP_facLowNegPT1_C</t>
+  </si>
+  <si>
+    <t>Filter parameter falling signal low range</t>
+  </si>
+  <si>
+    <t>APP_facUppPosPT1_C</t>
+  </si>
+  <si>
+    <t>Filter parameter rising signal high range</t>
+  </si>
+  <si>
+    <t>APP_facMidPosPT1_C</t>
+  </si>
+  <si>
+    <t>Filter parameter rising signal mid range</t>
+  </si>
+  <si>
+    <t>APP_facLowPosPT1_C</t>
+  </si>
+  <si>
+    <t>Filter parameter rising signal low range</t>
+  </si>
+  <si>
+    <t>SigTst_rAPP_C</t>
+  </si>
+  <si>
+    <t>set the accpedal value</t>
+  </si>
+  <si>
+    <t>SigTst_swtAPP_C</t>
+  </si>
+  <si>
+    <t>Switch to set accpedal value</t>
+  </si>
+  <si>
+    <t>APP_swtEnaFlt_C</t>
+  </si>
+  <si>
+    <t>Switch to enable PT1</t>
+  </si>
+  <si>
+    <t>Volt_mV</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Percent_s</t>
+  </si>
+  <si>
+    <t>Fac_100</t>
+  </si>
+  <si>
+    <t>Switch.OFF</t>
+  </si>
+  <si>
+    <t>Enum:Switch</t>
+  </si>
+  <si>
+    <t>[1 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%/ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +713,78 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +838,136 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C4" s="5">
+        <v>200</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1020,55 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +1080,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,46 +1120,445 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="6"/>
+      <c r="A4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-200</v>
+      </c>
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>100</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="6"/>
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E22" s="6"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E25" s="6"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E30" s="6"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">

--- a/spec/ASW/Veh/Driver/APP/APP_VD/APP_VD.xlsx
+++ b/spec/ASW/Veh/Driver/APP/APP_VD/APP_VD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Veh\Driver\APP\APP_VD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03E5466-FD31-4C67-989F-5AAB09E6D711}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0BD738-6BAD-45C9-A33E-87BE2C3E86BC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Switch to enable PT1</t>
   </si>
   <si>
-    <t>Volt_mV</t>
-  </si>
-  <si>
     <t>Percent</t>
   </si>
   <si>
@@ -282,6 +279,13 @@
   </si>
   <si>
     <t>%/ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volt_mV1</t>
+  </si>
+  <si>
+    <t>Volt_mV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -733,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -797,7 +801,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -858,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
@@ -884,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>24</v>
@@ -907,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
@@ -936,7 +940,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>29</v>
@@ -962,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>31</v>
@@ -980,7 +984,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1044,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>29</v>
@@ -1063,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>34</v>
@@ -1079,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>36</v>
@@ -1154,10 +1158,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>38</v>
@@ -1174,7 +1178,7 @@
         <v>5000</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>40</v>
@@ -1183,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>41</v>
@@ -1200,7 +1204,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>43</v>
@@ -1209,7 +1213,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>44</v>
@@ -1235,7 +1239,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>46</v>
@@ -1261,7 +1265,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>48</v>
@@ -1287,7 +1291,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>50</v>
@@ -1313,7 +1317,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>52</v>
@@ -1339,7 +1343,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>54</v>
@@ -1362,7 +1366,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>56</v>
@@ -1385,7 +1389,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>58</v>
@@ -1408,7 +1412,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>60</v>
@@ -1431,7 +1435,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>62</v>
@@ -1454,7 +1458,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>64</v>
@@ -1477,7 +1481,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>66</v>
@@ -1503,7 +1507,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>68</v>
@@ -1517,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>70</v>
@@ -1534,10 +1538,10 @@
         <v>12</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>72</v>
